--- a/src/main/resources/templates/student_template.xlsx
+++ b/src/main/resources/templates/student_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookairm3/Downloads/LMS/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560DFE50-1089-3148-8FA5-8849285BA983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735DCE06-F96A-B24D-A406-9A646B52C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,19 +59,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="C3") </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">jx:area(lastCell="D3") 
 </t>
         </r>
       </text>
@@ -105,7 +94,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="lists" var="item" varIndex="i" lastCell="C3")</t>
+          <t>jx:each(items="lists" var="item" varIndex="i" lastCell="D3")</t>
         </r>
       </text>
     </comment>
@@ -114,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>${i+1}</t>
   </si>
@@ -136,12 +125,18 @@
   <si>
     <t>Email</t>
   </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>${item.status}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,12 +169,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -209,7 +198,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -259,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,14 +277,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,7 +608,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,12 +619,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -658,6 +643,9 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -666,128 +654,154 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
